--- a/output/kossutha/2024/sheets/year_2024.xlsx
+++ b/output/kossutha/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>34.70967741935484</v>
+        <v>41.07419656345144</v>
       </c>
       <c r="C2" t="n">
-        <v>24.26129032258064</v>
+        <v>38.10997031273067</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>28.73448275862069</v>
+        <v>40.80887538489392</v>
       </c>
       <c r="C3" t="n">
-        <v>14.54482758620689</v>
+        <v>38.93767927517708</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.52903225806451</v>
+        <v>40.45245689952146</v>
       </c>
       <c r="C4" t="n">
-        <v>9.961290322580645</v>
+        <v>38.98734282066027</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.23</v>
+        <v>40.70948634305338</v>
       </c>
       <c r="C5" t="n">
-        <v>18.89</v>
+        <v>38.76450501904958</v>
       </c>
     </row>
   </sheetData>
